--- a/Vasklister/Excel/vaskeliste_v2.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="33">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -79,139 +79,40 @@
     <t/>
   </si>
   <si>
-    <t>PESYS -RecentUtbetalinger failed</t>
+    <t>13088334935</t>
   </si>
   <si>
-    <t>True</t>
+    <t>267794</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>7100</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>MANUELL BEHANDLING</t>
+    <t>FJELLHAMAR</t>
   </si>
   <si>
-    <t>02065143855</t>
+    <t>984661185</t>
   </si>
   <si>
-    <t>203247</t>
+    <t>POSTEN NORGE AS</t>
   </si>
   <si>
-    <t>25 833,33</t>
+    <t>Lørenskogveien 50_x000D_</t>
   </si>
   <si>
-    <t>36%</t>
+    <t>1470 LØRENSKOG_x000D_</t>
   </si>
   <si>
-    <t>DRAMMEN</t>
-  </si>
-  <si>
-    <t>02068925943</t>
-  </si>
-  <si>
-    <t>244562</t>
-  </si>
-  <si>
-    <t>47 166,67</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>GJØLME</t>
-  </si>
-  <si>
-    <t>992683414</t>
-  </si>
-  <si>
-    <t>COMFORT ORKDAL AS</t>
-  </si>
-  <si>
-    <t>Grønnørveien 19_x000D_</t>
-  </si>
-  <si>
-    <t>7300 ORKANGER_x000D_</t>
-  </si>
-  <si>
-    <t>02088731266</t>
-  </si>
-  <si>
-    <t>299970</t>
-  </si>
-  <si>
-    <t>29 333,33</t>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
-    <t>BRU</t>
-  </si>
-  <si>
-    <t>975964396</t>
-  </si>
-  <si>
-    <t>SHELL/7-ELEVEN RYEN</t>
-  </si>
-  <si>
-    <t>Enebakkveien 135_x000D_</t>
-  </si>
-  <si>
-    <t>0680 OSLO_x000D_</t>
-  </si>
-  <si>
-    <t>02116945668</t>
-  </si>
-  <si>
-    <t>260678</t>
-  </si>
-  <si>
-    <t>41 666,67</t>
-  </si>
-  <si>
-    <t>7118</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>LIER</t>
-  </si>
-  <si>
-    <t>03017047700</t>
-  </si>
-  <si>
-    <t>237349</t>
-  </si>
-  <si>
-    <t>7105</t>
-  </si>
-  <si>
-    <t>OPPDAL</t>
-  </si>
-  <si>
-    <t>913536770</t>
-  </si>
-  <si>
-    <t>VEIDEKKE INDUSTRI AS</t>
-  </si>
-  <si>
-    <t>Moen_x000D_</t>
-  </si>
-  <si>
-    <t>7340 OPPDAL_x000D_</t>
-  </si>
-  <si>
-    <t>3 000,00</t>
-  </si>
-  <si>
-    <t>4 000,00</t>
+    <t>8 333,33</t>
   </si>
 </sst>
 </file>
@@ -558,7 +459,7 @@
   <dimension ref="A1:T300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A2" sqref="A2:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,255 +542,300 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">

--- a/Vasklister/Excel/vaskeliste_v2.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="30">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -100,19 +100,10 @@
     <t>FJELLHAMAR</t>
   </si>
   <si>
-    <t>984661185</t>
+    <t>8 333,33</t>
   </si>
   <si>
-    <t>POSTEN NORGE AS</t>
-  </si>
-  <si>
-    <t>Lørenskogveien 50_x000D_</t>
-  </si>
-  <si>
-    <t>1470 LØRENSKOG_x000D_</t>
-  </si>
-  <si>
-    <t>8 333,33</t>
+    <t>A-Inntekt Failed</t>
   </si>
 </sst>
 </file>
@@ -458,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +459,8 @@
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="11.42578125" style="1"/>
     <col min="13" max="13" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -551,7 +543,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
@@ -577,17 +569,8 @@
       <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -19068,5 +19051,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vasklister/Excel/vaskeliste_v2.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5983" uniqueCount="23">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -83,27 +83,6 @@
   </si>
   <si>
     <t>267794</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FJELLHAMAR</t>
-  </si>
-  <si>
-    <t>8 333,33</t>
-  </si>
-  <si>
-    <t>A-Inntekt Failed</t>
   </si>
 </sst>
 </file>
@@ -449,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,36 +521,8 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Vasklister/Excel/vaskeliste_v2.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5995" uniqueCount="32">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>A-Inntekt Failed</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Kommune_Nr</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T300"/>
+  <dimension ref="A1:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,19 +464,20 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="11.42578125" style="1"/>
-    <col min="19" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,61 +485,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -543,22 +553,22 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>26</v>
@@ -567,13 +577,16 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -583,22 +596,19 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -634,8 +644,11 @@
       <c r="T3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -645,22 +658,19 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -696,8 +706,11 @@
       <c r="T4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -707,22 +720,19 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -758,8 +768,11 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -769,22 +782,19 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -820,8 +830,11 @@
       <c r="T6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -831,22 +844,19 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -882,8 +892,11 @@
       <c r="T7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -893,22 +906,19 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -944,8 +954,11 @@
       <c r="T8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -955,22 +968,19 @@
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1006,8 +1016,11 @@
       <c r="T9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1017,22 +1030,19 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1068,8 +1078,11 @@
       <c r="T10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1079,22 +1092,19 @@
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1130,8 +1140,11 @@
       <c r="T11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1141,22 +1154,19 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1192,8 +1202,11 @@
       <c r="T12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1203,22 +1216,19 @@
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1254,8 +1264,11 @@
       <c r="T13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1265,22 +1278,19 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1316,8 +1326,11 @@
       <c r="T14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1327,22 +1340,19 @@
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1378,8 +1388,11 @@
       <c r="T15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,22 +1402,19 @@
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1440,8 +1450,11 @@
       <c r="T16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,22 +1464,19 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1502,8 +1512,11 @@
       <c r="T17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1513,22 +1526,19 @@
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1564,8 +1574,11 @@
       <c r="T18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1575,22 +1588,19 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1626,8 +1636,11 @@
       <c r="T19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,22 +1650,19 @@
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1688,8 +1698,11 @@
       <c r="T20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,22 +1712,19 @@
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1750,8 +1760,11 @@
       <c r="T21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1761,22 +1774,19 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1812,8 +1822,11 @@
       <c r="T22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1823,22 +1836,19 @@
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1874,8 +1884,11 @@
       <c r="T23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1885,22 +1898,19 @@
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1936,8 +1946,11 @@
       <c r="T24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1947,22 +1960,19 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1998,8 +2008,11 @@
       <c r="T25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,22 +2022,19 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2060,8 +2070,11 @@
       <c r="T26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -2071,22 +2084,19 @@
       <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -2122,8 +2132,11 @@
       <c r="T27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2133,22 +2146,19 @@
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -2184,8 +2194,11 @@
       <c r="T28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,22 +2208,19 @@
       <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -2246,8 +2256,11 @@
       <c r="T29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2257,22 +2270,19 @@
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -2308,8 +2318,11 @@
       <c r="T30" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -2319,22 +2332,19 @@
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -2370,8 +2380,11 @@
       <c r="T31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,22 +2394,19 @@
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -2432,8 +2442,11 @@
       <c r="T32" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -2443,22 +2456,19 @@
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -2494,8 +2504,11 @@
       <c r="T33" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,22 +2518,19 @@
       <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -2556,8 +2566,11 @@
       <c r="T34" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2567,22 +2580,19 @@
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -2618,8 +2628,11 @@
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -2629,22 +2642,19 @@
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -2680,8 +2690,11 @@
       <c r="T36" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -2691,22 +2704,19 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -2742,8 +2752,11 @@
       <c r="T37" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -2753,22 +2766,19 @@
       <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -2804,8 +2814,11 @@
       <c r="T38" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,22 +2828,19 @@
       <c r="C39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -2866,8 +2876,11 @@
       <c r="T39" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2877,22 +2890,19 @@
       <c r="C40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -2928,8 +2938,11 @@
       <c r="T40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -2939,22 +2952,19 @@
       <c r="C41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -2990,8 +3000,11 @@
       <c r="T41" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -3001,22 +3014,19 @@
       <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3052,8 +3062,11 @@
       <c r="T42" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -3063,22 +3076,19 @@
       <c r="C43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -3114,8 +3124,11 @@
       <c r="T43" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,22 +3138,19 @@
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -3176,8 +3186,11 @@
       <c r="T44" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -3187,22 +3200,19 @@
       <c r="C45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -3238,8 +3248,11 @@
       <c r="T45" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -3249,22 +3262,19 @@
       <c r="C46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3300,8 +3310,11 @@
       <c r="T46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -3311,22 +3324,19 @@
       <c r="C47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3362,8 +3372,11 @@
       <c r="T47" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -3373,22 +3386,19 @@
       <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -3424,8 +3434,11 @@
       <c r="T48" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,22 +3448,19 @@
       <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -3486,8 +3496,11 @@
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -3497,22 +3510,19 @@
       <c r="C50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -3548,8 +3558,11 @@
       <c r="T50" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -3559,22 +3572,19 @@
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -3610,8 +3620,11 @@
       <c r="T51" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3621,22 +3634,19 @@
       <c r="C52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -3672,8 +3682,11 @@
       <c r="T52" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3683,22 +3696,19 @@
       <c r="C53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -3734,8 +3744,11 @@
       <c r="T53" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,22 +3758,19 @@
       <c r="C54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -3796,8 +3806,11 @@
       <c r="T54" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -3807,22 +3820,19 @@
       <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -3858,8 +3868,11 @@
       <c r="T55" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -3869,22 +3882,19 @@
       <c r="C56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="H56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -3920,8 +3930,11 @@
       <c r="T56" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -3931,22 +3944,19 @@
       <c r="C57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -3982,8 +3992,11 @@
       <c r="T57" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -3993,22 +4006,19 @@
       <c r="C58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -4044,8 +4054,11 @@
       <c r="T58" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,22 +4068,19 @@
       <c r="C59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -4106,8 +4116,11 @@
       <c r="T59" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -4117,22 +4130,19 @@
       <c r="C60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -4168,8 +4178,11 @@
       <c r="T60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
@@ -4179,22 +4192,19 @@
       <c r="C61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -4230,8 +4240,11 @@
       <c r="T61" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
@@ -4241,22 +4254,19 @@
       <c r="C62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="H62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -4292,8 +4302,11 @@
       <c r="T62" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
@@ -4303,22 +4316,19 @@
       <c r="C63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -4354,8 +4364,11 @@
       <c r="T63" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,22 +4378,19 @@
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="H64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4416,8 +4426,11 @@
       <c r="T64" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -4427,22 +4440,19 @@
       <c r="C65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="H65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -4478,8 +4488,11 @@
       <c r="T65" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -4489,22 +4502,19 @@
       <c r="C66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="H66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -4540,8 +4550,11 @@
       <c r="T66" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -4551,9 +4564,6 @@
       <c r="C67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E67" s="1" t="s">
         <v>20</v>
       </c>
@@ -4602,8 +4612,11 @@
       <c r="T67" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
@@ -4613,9 +4626,6 @@
       <c r="C68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E68" s="1" t="s">
         <v>20</v>
       </c>
@@ -4664,8 +4674,11 @@
       <c r="T68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,9 +4688,6 @@
       <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E69" s="1" t="s">
         <v>20</v>
       </c>
@@ -4726,8 +4736,11 @@
       <c r="T69" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -4737,9 +4750,6 @@
       <c r="C70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E70" s="1" t="s">
         <v>20</v>
       </c>
@@ -4788,8 +4798,11 @@
       <c r="T70" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -4799,9 +4812,6 @@
       <c r="C71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E71" s="1" t="s">
         <v>20</v>
       </c>
@@ -4850,8 +4860,11 @@
       <c r="T71" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
@@ -4861,9 +4874,6 @@
       <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E72" s="1" t="s">
         <v>20</v>
       </c>
@@ -4912,8 +4922,11 @@
       <c r="T72" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>20</v>
       </c>
@@ -4923,9 +4936,6 @@
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E73" s="1" t="s">
         <v>20</v>
       </c>
@@ -4974,8 +4984,11 @@
       <c r="T73" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,9 +4998,6 @@
       <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E74" s="1" t="s">
         <v>20</v>
       </c>
@@ -5036,8 +5046,11 @@
       <c r="T74" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
@@ -5047,9 +5060,6 @@
       <c r="C75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E75" s="1" t="s">
         <v>20</v>
       </c>
@@ -5098,8 +5108,11 @@
       <c r="T75" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
@@ -5109,9 +5122,6 @@
       <c r="C76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E76" s="1" t="s">
         <v>20</v>
       </c>
@@ -5160,8 +5170,11 @@
       <c r="T76" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
@@ -5171,9 +5184,6 @@
       <c r="C77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E77" s="1" t="s">
         <v>20</v>
       </c>
@@ -5222,8 +5232,11 @@
       <c r="T77" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>20</v>
       </c>
@@ -5233,9 +5246,6 @@
       <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E78" s="1" t="s">
         <v>20</v>
       </c>
@@ -5284,8 +5294,11 @@
       <c r="T78" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
@@ -5295,9 +5308,6 @@
       <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E79" s="1" t="s">
         <v>20</v>
       </c>
@@ -5346,8 +5356,11 @@
       <c r="T79" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
@@ -5357,9 +5370,6 @@
       <c r="C80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E80" s="1" t="s">
         <v>20</v>
       </c>
@@ -5408,8 +5418,11 @@
       <c r="T80" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>20</v>
       </c>
@@ -5419,9 +5432,6 @@
       <c r="C81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E81" s="1" t="s">
         <v>20</v>
       </c>
@@ -5470,8 +5480,11 @@
       <c r="T81" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -5481,9 +5494,6 @@
       <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E82" s="1" t="s">
         <v>20</v>
       </c>
@@ -5532,8 +5542,11 @@
       <c r="T82" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
@@ -5543,9 +5556,6 @@
       <c r="C83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E83" s="1" t="s">
         <v>20</v>
       </c>
@@ -5594,8 +5604,11 @@
       <c r="T83" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
@@ -5605,9 +5618,6 @@
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E84" s="1" t="s">
         <v>20</v>
       </c>
@@ -5656,8 +5666,11 @@
       <c r="T84" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>20</v>
       </c>
@@ -5667,9 +5680,6 @@
       <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E85" s="1" t="s">
         <v>20</v>
       </c>
@@ -5718,8 +5728,11 @@
       <c r="T85" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>20</v>
       </c>
@@ -5729,9 +5742,6 @@
       <c r="C86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E86" s="1" t="s">
         <v>20</v>
       </c>
@@ -5780,8 +5790,11 @@
       <c r="T86" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -5791,9 +5804,6 @@
       <c r="C87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E87" s="1" t="s">
         <v>20</v>
       </c>
@@ -5842,8 +5852,11 @@
       <c r="T87" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
@@ -5853,9 +5866,6 @@
       <c r="C88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E88" s="1" t="s">
         <v>20</v>
       </c>
@@ -5904,8 +5914,11 @@
       <c r="T88" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -5915,9 +5928,6 @@
       <c r="C89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E89" s="1" t="s">
         <v>20</v>
       </c>
@@ -5966,8 +5976,11 @@
       <c r="T89" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -5977,9 +5990,6 @@
       <c r="C90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E90" s="1" t="s">
         <v>20</v>
       </c>
@@ -6028,8 +6038,11 @@
       <c r="T90" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
@@ -6039,9 +6052,6 @@
       <c r="C91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E91" s="1" t="s">
         <v>20</v>
       </c>
@@ -6090,8 +6100,11 @@
       <c r="T91" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>20</v>
       </c>
@@ -6101,9 +6114,6 @@
       <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E92" s="1" t="s">
         <v>20</v>
       </c>
@@ -6152,8 +6162,11 @@
       <c r="T92" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
@@ -6163,9 +6176,6 @@
       <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E93" s="1" t="s">
         <v>20</v>
       </c>
@@ -6214,8 +6224,11 @@
       <c r="T93" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -6225,9 +6238,6 @@
       <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E94" s="1" t="s">
         <v>20</v>
       </c>
@@ -6276,8 +6286,11 @@
       <c r="T94" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -6287,9 +6300,6 @@
       <c r="C95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E95" s="1" t="s">
         <v>20</v>
       </c>
@@ -6338,8 +6348,11 @@
       <c r="T95" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
@@ -6349,9 +6362,6 @@
       <c r="C96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E96" s="1" t="s">
         <v>20</v>
       </c>
@@ -6400,8 +6410,11 @@
       <c r="T96" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
@@ -6411,9 +6424,6 @@
       <c r="C97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E97" s="1" t="s">
         <v>20</v>
       </c>
@@ -6462,8 +6472,11 @@
       <c r="T97" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>20</v>
       </c>
@@ -6473,9 +6486,6 @@
       <c r="C98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E98" s="1" t="s">
         <v>20</v>
       </c>
@@ -6524,8 +6534,11 @@
       <c r="T98" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
@@ -6535,9 +6548,6 @@
       <c r="C99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E99" s="1" t="s">
         <v>20</v>
       </c>
@@ -6586,8 +6596,11 @@
       <c r="T99" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>20</v>
       </c>
@@ -6597,9 +6610,6 @@
       <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E100" s="1" t="s">
         <v>20</v>
       </c>
@@ -6648,8 +6658,11 @@
       <c r="T100" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>20</v>
       </c>
@@ -6659,9 +6672,6 @@
       <c r="C101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E101" s="1" t="s">
         <v>20</v>
       </c>
@@ -6710,8 +6720,11 @@
       <c r="T101" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>20</v>
       </c>
@@ -6721,9 +6734,6 @@
       <c r="C102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E102" s="1" t="s">
         <v>20</v>
       </c>
@@ -6772,8 +6782,11 @@
       <c r="T102" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>20</v>
       </c>
@@ -6783,9 +6796,6 @@
       <c r="C103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E103" s="1" t="s">
         <v>20</v>
       </c>
@@ -6834,8 +6844,11 @@
       <c r="T103" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -6845,9 +6858,6 @@
       <c r="C104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E104" s="1" t="s">
         <v>20</v>
       </c>
@@ -6896,8 +6906,11 @@
       <c r="T104" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -6907,9 +6920,6 @@
       <c r="C105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E105" s="1" t="s">
         <v>20</v>
       </c>
@@ -6958,8 +6968,11 @@
       <c r="T105" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -6969,9 +6982,6 @@
       <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E106" s="1" t="s">
         <v>20</v>
       </c>
@@ -7020,8 +7030,11 @@
       <c r="T106" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
@@ -7031,9 +7044,6 @@
       <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E107" s="1" t="s">
         <v>20</v>
       </c>
@@ -7082,8 +7092,11 @@
       <c r="T107" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
@@ -7093,9 +7106,6 @@
       <c r="C108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E108" s="1" t="s">
         <v>20</v>
       </c>
@@ -7144,8 +7154,11 @@
       <c r="T108" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>20</v>
       </c>
@@ -7155,9 +7168,6 @@
       <c r="C109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E109" s="1" t="s">
         <v>20</v>
       </c>
@@ -7206,8 +7216,11 @@
       <c r="T109" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>20</v>
       </c>
@@ -7217,9 +7230,6 @@
       <c r="C110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E110" s="1" t="s">
         <v>20</v>
       </c>
@@ -7268,8 +7278,11 @@
       <c r="T110" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>20</v>
       </c>
@@ -7279,9 +7292,6 @@
       <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E111" s="1" t="s">
         <v>20</v>
       </c>
@@ -7330,8 +7340,11 @@
       <c r="T111" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>20</v>
       </c>
@@ -7341,9 +7354,6 @@
       <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E112" s="1" t="s">
         <v>20</v>
       </c>
@@ -7392,8 +7402,11 @@
       <c r="T112" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>20</v>
       </c>
@@ -7403,9 +7416,6 @@
       <c r="C113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E113" s="1" t="s">
         <v>20</v>
       </c>
@@ -7454,8 +7464,11 @@
       <c r="T113" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>20</v>
       </c>
@@ -7465,9 +7478,6 @@
       <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E114" s="1" t="s">
         <v>20</v>
       </c>
@@ -7516,8 +7526,11 @@
       <c r="T114" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>20</v>
       </c>
@@ -7527,9 +7540,6 @@
       <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E115" s="1" t="s">
         <v>20</v>
       </c>
@@ -7578,8 +7588,11 @@
       <c r="T115" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>20</v>
       </c>
@@ -7589,9 +7602,6 @@
       <c r="C116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E116" s="1" t="s">
         <v>20</v>
       </c>
@@ -7640,8 +7650,11 @@
       <c r="T116" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>20</v>
       </c>
@@ -7651,9 +7664,6 @@
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E117" s="1" t="s">
         <v>20</v>
       </c>
@@ -7702,8 +7712,11 @@
       <c r="T117" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
@@ -7713,9 +7726,6 @@
       <c r="C118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E118" s="1" t="s">
         <v>20</v>
       </c>
@@ -7764,8 +7774,11 @@
       <c r="T118" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>20</v>
       </c>
@@ -7775,9 +7788,6 @@
       <c r="C119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E119" s="1" t="s">
         <v>20</v>
       </c>
@@ -7826,8 +7836,11 @@
       <c r="T119" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>20</v>
       </c>
@@ -7837,9 +7850,6 @@
       <c r="C120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E120" s="1" t="s">
         <v>20</v>
       </c>
@@ -7888,8 +7898,11 @@
       <c r="T120" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
@@ -7899,9 +7912,6 @@
       <c r="C121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E121" s="1" t="s">
         <v>20</v>
       </c>
@@ -7950,8 +7960,11 @@
       <c r="T121" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>20</v>
       </c>
@@ -7961,9 +7974,6 @@
       <c r="C122" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E122" s="1" t="s">
         <v>20</v>
       </c>
@@ -8012,8 +8022,11 @@
       <c r="T122" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -8023,9 +8036,6 @@
       <c r="C123" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E123" s="1" t="s">
         <v>20</v>
       </c>
@@ -8074,8 +8084,11 @@
       <c r="T123" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -8085,9 +8098,6 @@
       <c r="C124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E124" s="1" t="s">
         <v>20</v>
       </c>
@@ -8136,8 +8146,11 @@
       <c r="T124" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>20</v>
       </c>
@@ -8147,9 +8160,6 @@
       <c r="C125" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E125" s="1" t="s">
         <v>20</v>
       </c>
@@ -8198,8 +8208,11 @@
       <c r="T125" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>20</v>
       </c>
@@ -8209,9 +8222,6 @@
       <c r="C126" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E126" s="1" t="s">
         <v>20</v>
       </c>
@@ -8260,8 +8270,11 @@
       <c r="T126" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>20</v>
       </c>
@@ -8271,9 +8284,6 @@
       <c r="C127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E127" s="1" t="s">
         <v>20</v>
       </c>
@@ -8322,8 +8332,11 @@
       <c r="T127" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>20</v>
       </c>
@@ -8333,9 +8346,6 @@
       <c r="C128" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E128" s="1" t="s">
         <v>20</v>
       </c>
@@ -8384,8 +8394,11 @@
       <c r="T128" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>20</v>
       </c>
@@ -8395,9 +8408,6 @@
       <c r="C129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E129" s="1" t="s">
         <v>20</v>
       </c>
@@ -8446,8 +8456,11 @@
       <c r="T129" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>20</v>
       </c>
@@ -8457,9 +8470,6 @@
       <c r="C130" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E130" s="1" t="s">
         <v>20</v>
       </c>
@@ -8508,8 +8518,11 @@
       <c r="T130" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -8519,9 +8532,6 @@
       <c r="C131" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E131" s="1" t="s">
         <v>20</v>
       </c>
@@ -8570,8 +8580,11 @@
       <c r="T131" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>20</v>
       </c>
@@ -8581,9 +8594,6 @@
       <c r="C132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E132" s="1" t="s">
         <v>20</v>
       </c>
@@ -8632,8 +8642,11 @@
       <c r="T132" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>20</v>
       </c>
@@ -8643,9 +8656,6 @@
       <c r="C133" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E133" s="1" t="s">
         <v>20</v>
       </c>
@@ -8694,8 +8704,11 @@
       <c r="T133" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>20</v>
       </c>
@@ -8705,9 +8718,6 @@
       <c r="C134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E134" s="1" t="s">
         <v>20</v>
       </c>
@@ -8756,8 +8766,11 @@
       <c r="T134" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>20</v>
       </c>
@@ -8767,9 +8780,6 @@
       <c r="C135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E135" s="1" t="s">
         <v>20</v>
       </c>
@@ -8818,8 +8828,11 @@
       <c r="T135" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>20</v>
       </c>
@@ -8829,9 +8842,6 @@
       <c r="C136" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E136" s="1" t="s">
         <v>20</v>
       </c>
@@ -8880,8 +8890,11 @@
       <c r="T136" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>20</v>
       </c>
@@ -8891,9 +8904,6 @@
       <c r="C137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E137" s="1" t="s">
         <v>20</v>
       </c>
@@ -8942,8 +8952,11 @@
       <c r="T137" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>20</v>
       </c>
@@ -8953,9 +8966,6 @@
       <c r="C138" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E138" s="1" t="s">
         <v>20</v>
       </c>
@@ -9004,8 +9014,11 @@
       <c r="T138" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>20</v>
       </c>
@@ -9015,9 +9028,6 @@
       <c r="C139" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E139" s="1" t="s">
         <v>20</v>
       </c>
@@ -9066,8 +9076,11 @@
       <c r="T139" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>20</v>
       </c>
@@ -9077,9 +9090,6 @@
       <c r="C140" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E140" s="1" t="s">
         <v>20</v>
       </c>
@@ -9128,8 +9138,11 @@
       <c r="T140" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U140" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>20</v>
       </c>
@@ -9139,9 +9152,6 @@
       <c r="C141" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E141" s="1" t="s">
         <v>20</v>
       </c>
@@ -9190,8 +9200,11 @@
       <c r="T141" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>20</v>
       </c>
@@ -9201,9 +9214,6 @@
       <c r="C142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E142" s="1" t="s">
         <v>20</v>
       </c>
@@ -9252,8 +9262,11 @@
       <c r="T142" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>20</v>
       </c>
@@ -9263,9 +9276,6 @@
       <c r="C143" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E143" s="1" t="s">
         <v>20</v>
       </c>
@@ -9314,8 +9324,11 @@
       <c r="T143" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>20</v>
       </c>
@@ -9325,9 +9338,6 @@
       <c r="C144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E144" s="1" t="s">
         <v>20</v>
       </c>
@@ -9376,8 +9386,11 @@
       <c r="T144" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>20</v>
       </c>
@@ -9387,9 +9400,6 @@
       <c r="C145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E145" s="1" t="s">
         <v>20</v>
       </c>
@@ -9438,8 +9448,11 @@
       <c r="T145" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>20</v>
       </c>
@@ -9449,9 +9462,6 @@
       <c r="C146" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E146" s="1" t="s">
         <v>20</v>
       </c>
@@ -9500,8 +9510,11 @@
       <c r="T146" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>20</v>
       </c>
@@ -9511,9 +9524,6 @@
       <c r="C147" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E147" s="1" t="s">
         <v>20</v>
       </c>
@@ -9562,8 +9572,11 @@
       <c r="T147" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>20</v>
       </c>
@@ -9573,9 +9586,6 @@
       <c r="C148" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E148" s="1" t="s">
         <v>20</v>
       </c>
@@ -9624,8 +9634,11 @@
       <c r="T148" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>20</v>
       </c>
@@ -9635,9 +9648,6 @@
       <c r="C149" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E149" s="1" t="s">
         <v>20</v>
       </c>
@@ -9686,8 +9696,11 @@
       <c r="T149" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>20</v>
       </c>
@@ -9697,9 +9710,6 @@
       <c r="C150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E150" s="1" t="s">
         <v>20</v>
       </c>
@@ -9748,8 +9758,11 @@
       <c r="T150" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>20</v>
       </c>
@@ -9759,9 +9772,6 @@
       <c r="C151" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E151" s="1" t="s">
         <v>20</v>
       </c>
@@ -9810,8 +9820,11 @@
       <c r="T151" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>20</v>
       </c>
@@ -9821,9 +9834,6 @@
       <c r="C152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E152" s="1" t="s">
         <v>20</v>
       </c>
@@ -9872,8 +9882,11 @@
       <c r="T152" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
@@ -9883,9 +9896,6 @@
       <c r="C153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E153" s="1" t="s">
         <v>20</v>
       </c>
@@ -9934,8 +9944,11 @@
       <c r="T153" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
@@ -9945,9 +9958,6 @@
       <c r="C154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E154" s="1" t="s">
         <v>20</v>
       </c>
@@ -9996,8 +10006,11 @@
       <c r="T154" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>20</v>
       </c>
@@ -10007,9 +10020,6 @@
       <c r="C155" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E155" s="1" t="s">
         <v>20</v>
       </c>
@@ -10058,8 +10068,11 @@
       <c r="T155" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>20</v>
       </c>
@@ -10069,9 +10082,6 @@
       <c r="C156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E156" s="1" t="s">
         <v>20</v>
       </c>
@@ -10120,8 +10130,11 @@
       <c r="T156" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U156" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>20</v>
       </c>
@@ -10131,9 +10144,6 @@
       <c r="C157" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E157" s="1" t="s">
         <v>20</v>
       </c>
@@ -10182,8 +10192,11 @@
       <c r="T157" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U157" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>20</v>
       </c>
@@ -10193,9 +10206,6 @@
       <c r="C158" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E158" s="1" t="s">
         <v>20</v>
       </c>
@@ -10244,8 +10254,11 @@
       <c r="T158" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U158" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>20</v>
       </c>
@@ -10255,9 +10268,6 @@
       <c r="C159" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E159" s="1" t="s">
         <v>20</v>
       </c>
@@ -10306,8 +10316,11 @@
       <c r="T159" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -10317,9 +10330,6 @@
       <c r="C160" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E160" s="1" t="s">
         <v>20</v>
       </c>
@@ -10368,8 +10378,11 @@
       <c r="T160" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>20</v>
       </c>
@@ -10379,9 +10392,6 @@
       <c r="C161" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E161" s="1" t="s">
         <v>20</v>
       </c>
@@ -10430,8 +10440,11 @@
       <c r="T161" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U161" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>20</v>
       </c>
@@ -10441,9 +10454,6 @@
       <c r="C162" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E162" s="1" t="s">
         <v>20</v>
       </c>
@@ -10492,8 +10502,11 @@
       <c r="T162" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U162" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>20</v>
       </c>
@@ -10503,9 +10516,6 @@
       <c r="C163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E163" s="1" t="s">
         <v>20</v>
       </c>
@@ -10554,8 +10564,11 @@
       <c r="T163" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U163" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
@@ -10565,9 +10578,6 @@
       <c r="C164" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E164" s="1" t="s">
         <v>20</v>
       </c>
@@ -10616,8 +10626,11 @@
       <c r="T164" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U164" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>20</v>
       </c>
@@ -10627,9 +10640,6 @@
       <c r="C165" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E165" s="1" t="s">
         <v>20</v>
       </c>
@@ -10678,8 +10688,11 @@
       <c r="T165" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>20</v>
       </c>
@@ -10689,9 +10702,6 @@
       <c r="C166" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E166" s="1" t="s">
         <v>20</v>
       </c>
@@ -10740,8 +10750,11 @@
       <c r="T166" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U166" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -10751,9 +10764,6 @@
       <c r="C167" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E167" s="1" t="s">
         <v>20</v>
       </c>
@@ -10802,8 +10812,11 @@
       <c r="T167" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U167" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>20</v>
       </c>
@@ -10813,9 +10826,6 @@
       <c r="C168" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E168" s="1" t="s">
         <v>20</v>
       </c>
@@ -10864,8 +10874,11 @@
       <c r="T168" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>20</v>
       </c>
@@ -10875,9 +10888,6 @@
       <c r="C169" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E169" s="1" t="s">
         <v>20</v>
       </c>
@@ -10926,8 +10936,11 @@
       <c r="T169" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U169" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>20</v>
       </c>
@@ -10937,9 +10950,6 @@
       <c r="C170" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E170" s="1" t="s">
         <v>20</v>
       </c>
@@ -10988,8 +10998,11 @@
       <c r="T170" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>20</v>
       </c>
@@ -10999,9 +11012,6 @@
       <c r="C171" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E171" s="1" t="s">
         <v>20</v>
       </c>
@@ -11050,8 +11060,11 @@
       <c r="T171" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U171" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>20</v>
       </c>
@@ -11061,9 +11074,6 @@
       <c r="C172" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E172" s="1" t="s">
         <v>20</v>
       </c>
@@ -11112,8 +11122,11 @@
       <c r="T172" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U172" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>20</v>
       </c>
@@ -11123,9 +11136,6 @@
       <c r="C173" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E173" s="1" t="s">
         <v>20</v>
       </c>
@@ -11174,8 +11184,11 @@
       <c r="T173" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U173" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>20</v>
       </c>
@@ -11185,9 +11198,6 @@
       <c r="C174" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E174" s="1" t="s">
         <v>20</v>
       </c>
@@ -11236,8 +11246,11 @@
       <c r="T174" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U174" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>20</v>
       </c>
@@ -11247,9 +11260,6 @@
       <c r="C175" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E175" s="1" t="s">
         <v>20</v>
       </c>
@@ -11298,8 +11308,11 @@
       <c r="T175" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U175" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>20</v>
       </c>
@@ -11309,9 +11322,6 @@
       <c r="C176" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E176" s="1" t="s">
         <v>20</v>
       </c>
@@ -11360,8 +11370,11 @@
       <c r="T176" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U176" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>20</v>
       </c>
@@ -11371,9 +11384,6 @@
       <c r="C177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E177" s="1" t="s">
         <v>20</v>
       </c>
@@ -11422,8 +11432,11 @@
       <c r="T177" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U177" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>20</v>
       </c>
@@ -11433,9 +11446,6 @@
       <c r="C178" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E178" s="1" t="s">
         <v>20</v>
       </c>
@@ -11484,8 +11494,11 @@
       <c r="T178" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U178" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>20</v>
       </c>
@@ -11495,9 +11508,6 @@
       <c r="C179" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E179" s="1" t="s">
         <v>20</v>
       </c>
@@ -11546,8 +11556,11 @@
       <c r="T179" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U179" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>20</v>
       </c>
@@ -11557,9 +11570,6 @@
       <c r="C180" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E180" s="1" t="s">
         <v>20</v>
       </c>
@@ -11608,8 +11618,11 @@
       <c r="T180" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U180" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>20</v>
       </c>
@@ -11619,9 +11632,6 @@
       <c r="C181" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E181" s="1" t="s">
         <v>20</v>
       </c>
@@ -11670,8 +11680,11 @@
       <c r="T181" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
@@ -11681,9 +11694,6 @@
       <c r="C182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E182" s="1" t="s">
         <v>20</v>
       </c>
@@ -11732,8 +11742,11 @@
       <c r="T182" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U182" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
@@ -11743,9 +11756,6 @@
       <c r="C183" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E183" s="1" t="s">
         <v>20</v>
       </c>
@@ -11794,8 +11804,11 @@
       <c r="T183" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U183" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>20</v>
       </c>
@@ -11805,9 +11818,6 @@
       <c r="C184" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E184" s="1" t="s">
         <v>20</v>
       </c>
@@ -11856,8 +11866,11 @@
       <c r="T184" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U184" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>20</v>
       </c>
@@ -11867,9 +11880,6 @@
       <c r="C185" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E185" s="1" t="s">
         <v>20</v>
       </c>
@@ -11918,8 +11928,11 @@
       <c r="T185" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U185" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>20</v>
       </c>
@@ -11929,9 +11942,6 @@
       <c r="C186" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E186" s="1" t="s">
         <v>20</v>
       </c>
@@ -11980,8 +11990,11 @@
       <c r="T186" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U186" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>20</v>
       </c>
@@ -11991,9 +12004,6 @@
       <c r="C187" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E187" s="1" t="s">
         <v>20</v>
       </c>
@@ -12042,8 +12052,11 @@
       <c r="T187" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U187" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>20</v>
       </c>
@@ -12053,9 +12066,6 @@
       <c r="C188" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E188" s="1" t="s">
         <v>20</v>
       </c>
@@ -12104,8 +12114,11 @@
       <c r="T188" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U188" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>20</v>
       </c>
@@ -12115,9 +12128,6 @@
       <c r="C189" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E189" s="1" t="s">
         <v>20</v>
       </c>
@@ -12166,8 +12176,11 @@
       <c r="T189" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U189" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>20</v>
       </c>
@@ -12177,9 +12190,6 @@
       <c r="C190" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E190" s="1" t="s">
         <v>20</v>
       </c>
@@ -12228,8 +12238,11 @@
       <c r="T190" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U190" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>20</v>
       </c>
@@ -12239,9 +12252,6 @@
       <c r="C191" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E191" s="1" t="s">
         <v>20</v>
       </c>
@@ -12290,8 +12300,11 @@
       <c r="T191" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U191" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>20</v>
       </c>
@@ -12301,9 +12314,6 @@
       <c r="C192" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E192" s="1" t="s">
         <v>20</v>
       </c>
@@ -12352,8 +12362,11 @@
       <c r="T192" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U192" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>20</v>
       </c>
@@ -12363,9 +12376,6 @@
       <c r="C193" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E193" s="1" t="s">
         <v>20</v>
       </c>
@@ -12414,8 +12424,11 @@
       <c r="T193" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U193" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>20</v>
       </c>
@@ -12425,9 +12438,6 @@
       <c r="C194" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E194" s="1" t="s">
         <v>20</v>
       </c>
@@ -12476,8 +12486,11 @@
       <c r="T194" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U194" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>20</v>
       </c>
@@ -12487,9 +12500,6 @@
       <c r="C195" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E195" s="1" t="s">
         <v>20</v>
       </c>
@@ -12538,8 +12548,11 @@
       <c r="T195" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U195" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>20</v>
       </c>
@@ -12549,9 +12562,6 @@
       <c r="C196" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E196" s="1" t="s">
         <v>20</v>
       </c>
@@ -12600,8 +12610,11 @@
       <c r="T196" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U196" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -12611,9 +12624,6 @@
       <c r="C197" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E197" s="1" t="s">
         <v>20</v>
       </c>
@@ -12662,8 +12672,11 @@
       <c r="T197" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U197" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>20</v>
       </c>
@@ -12673,9 +12686,6 @@
       <c r="C198" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E198" s="1" t="s">
         <v>20</v>
       </c>
@@ -12724,8 +12734,11 @@
       <c r="T198" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U198" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>20</v>
       </c>
@@ -12735,9 +12748,6 @@
       <c r="C199" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E199" s="1" t="s">
         <v>20</v>
       </c>
@@ -12786,8 +12796,11 @@
       <c r="T199" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U199" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>20</v>
       </c>
@@ -12797,9 +12810,6 @@
       <c r="C200" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E200" s="1" t="s">
         <v>20</v>
       </c>
@@ -12848,8 +12858,11 @@
       <c r="T200" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U200" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>20</v>
       </c>
@@ -12859,9 +12872,6 @@
       <c r="C201" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E201" s="1" t="s">
         <v>20</v>
       </c>
@@ -12910,8 +12920,11 @@
       <c r="T201" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U201" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>20</v>
       </c>
@@ -12921,9 +12934,6 @@
       <c r="C202" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E202" s="1" t="s">
         <v>20</v>
       </c>
@@ -12972,8 +12982,11 @@
       <c r="T202" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>20</v>
       </c>
@@ -12983,9 +12996,6 @@
       <c r="C203" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E203" s="1" t="s">
         <v>20</v>
       </c>
@@ -13034,8 +13044,11 @@
       <c r="T203" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U203" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -13045,9 +13058,6 @@
       <c r="C204" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E204" s="1" t="s">
         <v>20</v>
       </c>
@@ -13096,8 +13106,11 @@
       <c r="T204" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U204" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>20</v>
       </c>
@@ -13107,9 +13120,6 @@
       <c r="C205" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E205" s="1" t="s">
         <v>20</v>
       </c>
@@ -13158,8 +13168,11 @@
       <c r="T205" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U205" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>20</v>
       </c>
@@ -13169,9 +13182,6 @@
       <c r="C206" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E206" s="1" t="s">
         <v>20</v>
       </c>
@@ -13220,8 +13230,11 @@
       <c r="T206" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U206" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>20</v>
       </c>
@@ -13231,9 +13244,6 @@
       <c r="C207" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E207" s="1" t="s">
         <v>20</v>
       </c>
@@ -13282,8 +13292,11 @@
       <c r="T207" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U207" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>20</v>
       </c>
@@ -13293,9 +13306,6 @@
       <c r="C208" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E208" s="1" t="s">
         <v>20</v>
       </c>
@@ -13344,8 +13354,11 @@
       <c r="T208" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U208" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>20</v>
       </c>
@@ -13355,9 +13368,6 @@
       <c r="C209" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E209" s="1" t="s">
         <v>20</v>
       </c>
@@ -13406,8 +13416,11 @@
       <c r="T209" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U209" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -13417,9 +13430,6 @@
       <c r="C210" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E210" s="1" t="s">
         <v>20</v>
       </c>
@@ -13468,8 +13478,11 @@
       <c r="T210" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U210" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>20</v>
       </c>
@@ -13479,9 +13492,6 @@
       <c r="C211" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E211" s="1" t="s">
         <v>20</v>
       </c>
@@ -13530,8 +13540,11 @@
       <c r="T211" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U211" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>20</v>
       </c>
@@ -13541,9 +13554,6 @@
       <c r="C212" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E212" s="1" t="s">
         <v>20</v>
       </c>
@@ -13592,8 +13602,11 @@
       <c r="T212" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U212" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>20</v>
       </c>
@@ -13603,9 +13616,6 @@
       <c r="C213" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E213" s="1" t="s">
         <v>20</v>
       </c>
@@ -13654,8 +13664,11 @@
       <c r="T213" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U213" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>20</v>
       </c>
@@ -13665,9 +13678,6 @@
       <c r="C214" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E214" s="1" t="s">
         <v>20</v>
       </c>
@@ -13716,8 +13726,11 @@
       <c r="T214" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U214" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>20</v>
       </c>
@@ -13727,9 +13740,6 @@
       <c r="C215" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E215" s="1" t="s">
         <v>20</v>
       </c>
@@ -13778,8 +13788,11 @@
       <c r="T215" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U215" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>20</v>
       </c>
@@ -13789,9 +13802,6 @@
       <c r="C216" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E216" s="1" t="s">
         <v>20</v>
       </c>
@@ -13840,8 +13850,11 @@
       <c r="T216" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U216" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>20</v>
       </c>
@@ -13851,9 +13864,6 @@
       <c r="C217" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E217" s="1" t="s">
         <v>20</v>
       </c>
@@ -13902,8 +13912,11 @@
       <c r="T217" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U217" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>20</v>
       </c>
@@ -13913,9 +13926,6 @@
       <c r="C218" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E218" s="1" t="s">
         <v>20</v>
       </c>
@@ -13964,8 +13974,11 @@
       <c r="T218" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U218" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>20</v>
       </c>
@@ -13975,9 +13988,6 @@
       <c r="C219" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E219" s="1" t="s">
         <v>20</v>
       </c>
@@ -14026,8 +14036,11 @@
       <c r="T219" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U219" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>20</v>
       </c>
@@ -14037,9 +14050,6 @@
       <c r="C220" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E220" s="1" t="s">
         <v>20</v>
       </c>
@@ -14088,8 +14098,11 @@
       <c r="T220" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U220" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>20</v>
       </c>
@@ -14099,9 +14112,6 @@
       <c r="C221" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E221" s="1" t="s">
         <v>20</v>
       </c>
@@ -14150,8 +14160,11 @@
       <c r="T221" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U221" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>20</v>
       </c>
@@ -14161,9 +14174,6 @@
       <c r="C222" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E222" s="1" t="s">
         <v>20</v>
       </c>
@@ -14212,8 +14222,11 @@
       <c r="T222" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U222" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>20</v>
       </c>
@@ -14223,9 +14236,6 @@
       <c r="C223" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E223" s="1" t="s">
         <v>20</v>
       </c>
@@ -14274,8 +14284,11 @@
       <c r="T223" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U223" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>20</v>
       </c>
@@ -14285,9 +14298,6 @@
       <c r="C224" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E224" s="1" t="s">
         <v>20</v>
       </c>
@@ -14336,8 +14346,11 @@
       <c r="T224" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U224" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>20</v>
       </c>
@@ -14347,9 +14360,6 @@
       <c r="C225" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E225" s="1" t="s">
         <v>20</v>
       </c>
@@ -14398,8 +14408,11 @@
       <c r="T225" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U225" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>20</v>
       </c>
@@ -14409,9 +14422,6 @@
       <c r="C226" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E226" s="1" t="s">
         <v>20</v>
       </c>
@@ -14460,8 +14470,11 @@
       <c r="T226" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U226" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>20</v>
       </c>
@@ -14471,9 +14484,6 @@
       <c r="C227" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E227" s="1" t="s">
         <v>20</v>
       </c>
@@ -14522,8 +14532,11 @@
       <c r="T227" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U227" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>20</v>
       </c>
@@ -14533,9 +14546,6 @@
       <c r="C228" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E228" s="1" t="s">
         <v>20</v>
       </c>
@@ -14584,8 +14594,11 @@
       <c r="T228" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U228" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>20</v>
       </c>
@@ -14595,9 +14608,6 @@
       <c r="C229" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E229" s="1" t="s">
         <v>20</v>
       </c>
@@ -14646,8 +14656,11 @@
       <c r="T229" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U229" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>20</v>
       </c>
@@ -14657,9 +14670,6 @@
       <c r="C230" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E230" s="1" t="s">
         <v>20</v>
       </c>
@@ -14708,8 +14718,11 @@
       <c r="T230" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U230" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>20</v>
       </c>
@@ -14719,9 +14732,6 @@
       <c r="C231" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E231" s="1" t="s">
         <v>20</v>
       </c>
@@ -14770,8 +14780,11 @@
       <c r="T231" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U231" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>20</v>
       </c>
@@ -14781,9 +14794,6 @@
       <c r="C232" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E232" s="1" t="s">
         <v>20</v>
       </c>
@@ -14832,8 +14842,11 @@
       <c r="T232" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U232" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>20</v>
       </c>
@@ -14843,9 +14856,6 @@
       <c r="C233" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E233" s="1" t="s">
         <v>20</v>
       </c>
@@ -14894,8 +14904,11 @@
       <c r="T233" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U233" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
@@ -14905,9 +14918,6 @@
       <c r="C234" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E234" s="1" t="s">
         <v>20</v>
       </c>
@@ -14956,8 +14966,11 @@
       <c r="T234" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U234" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>20</v>
       </c>
@@ -14967,9 +14980,6 @@
       <c r="C235" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E235" s="1" t="s">
         <v>20</v>
       </c>
@@ -15018,8 +15028,11 @@
       <c r="T235" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U235" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>20</v>
       </c>
@@ -15029,9 +15042,6 @@
       <c r="C236" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E236" s="1" t="s">
         <v>20</v>
       </c>
@@ -15080,8 +15090,11 @@
       <c r="T236" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U236" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>20</v>
       </c>
@@ -15091,9 +15104,6 @@
       <c r="C237" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E237" s="1" t="s">
         <v>20</v>
       </c>
@@ -15142,8 +15152,11 @@
       <c r="T237" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U237" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>20</v>
       </c>
@@ -15153,9 +15166,6 @@
       <c r="C238" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E238" s="1" t="s">
         <v>20</v>
       </c>
@@ -15204,8 +15214,11 @@
       <c r="T238" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U238" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>20</v>
       </c>
@@ -15215,9 +15228,6 @@
       <c r="C239" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E239" s="1" t="s">
         <v>20</v>
       </c>
@@ -15266,8 +15276,11 @@
       <c r="T239" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U239" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>20</v>
       </c>
@@ -15277,9 +15290,6 @@
       <c r="C240" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E240" s="1" t="s">
         <v>20</v>
       </c>
@@ -15328,8 +15338,11 @@
       <c r="T240" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U240" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -15339,9 +15352,6 @@
       <c r="C241" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E241" s="1" t="s">
         <v>20</v>
       </c>
@@ -15390,8 +15400,11 @@
       <c r="T241" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U241" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>20</v>
       </c>
@@ -15401,9 +15414,6 @@
       <c r="C242" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E242" s="1" t="s">
         <v>20</v>
       </c>
@@ -15452,8 +15462,11 @@
       <c r="T242" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U242" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>20</v>
       </c>
@@ -15463,9 +15476,6 @@
       <c r="C243" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E243" s="1" t="s">
         <v>20</v>
       </c>
@@ -15514,8 +15524,11 @@
       <c r="T243" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U243" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>20</v>
       </c>
@@ -15525,9 +15538,6 @@
       <c r="C244" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E244" s="1" t="s">
         <v>20</v>
       </c>
@@ -15576,8 +15586,11 @@
       <c r="T244" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U244" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>20</v>
       </c>
@@ -15587,9 +15600,6 @@
       <c r="C245" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E245" s="1" t="s">
         <v>20</v>
       </c>
@@ -15638,8 +15648,11 @@
       <c r="T245" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U245" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>20</v>
       </c>
@@ -15649,9 +15662,6 @@
       <c r="C246" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E246" s="1" t="s">
         <v>20</v>
       </c>
@@ -15700,8 +15710,11 @@
       <c r="T246" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U246" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>20</v>
       </c>
@@ -15711,9 +15724,6 @@
       <c r="C247" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E247" s="1" t="s">
         <v>20</v>
       </c>
@@ -15762,8 +15772,11 @@
       <c r="T247" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U247" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>20</v>
       </c>
@@ -15773,9 +15786,6 @@
       <c r="C248" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E248" s="1" t="s">
         <v>20</v>
       </c>
@@ -15824,8 +15834,11 @@
       <c r="T248" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U248" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
@@ -15835,9 +15848,6 @@
       <c r="C249" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E249" s="1" t="s">
         <v>20</v>
       </c>
@@ -15886,8 +15896,11 @@
       <c r="T249" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U249" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>20</v>
       </c>
@@ -15897,9 +15910,6 @@
       <c r="C250" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E250" s="1" t="s">
         <v>20</v>
       </c>
@@ -15948,8 +15958,11 @@
       <c r="T250" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U250" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>20</v>
       </c>
@@ -15959,9 +15972,6 @@
       <c r="C251" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E251" s="1" t="s">
         <v>20</v>
       </c>
@@ -16010,8 +16020,11 @@
       <c r="T251" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U251" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>20</v>
       </c>
@@ -16021,9 +16034,6 @@
       <c r="C252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E252" s="1" t="s">
         <v>20</v>
       </c>
@@ -16072,8 +16082,11 @@
       <c r="T252" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U252" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
@@ -16083,9 +16096,6 @@
       <c r="C253" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E253" s="1" t="s">
         <v>20</v>
       </c>
@@ -16134,8 +16144,11 @@
       <c r="T253" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U253" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>20</v>
       </c>
@@ -16145,9 +16158,6 @@
       <c r="C254" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E254" s="1" t="s">
         <v>20</v>
       </c>
@@ -16196,8 +16206,11 @@
       <c r="T254" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U254" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>20</v>
       </c>
@@ -16207,9 +16220,6 @@
       <c r="C255" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E255" s="1" t="s">
         <v>20</v>
       </c>
@@ -16258,8 +16268,11 @@
       <c r="T255" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U255" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>20</v>
       </c>
@@ -16269,9 +16282,6 @@
       <c r="C256" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E256" s="1" t="s">
         <v>20</v>
       </c>
@@ -16320,8 +16330,11 @@
       <c r="T256" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U256" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>20</v>
       </c>
@@ -16331,9 +16344,6 @@
       <c r="C257" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E257" s="1" t="s">
         <v>20</v>
       </c>
@@ -16382,8 +16392,11 @@
       <c r="T257" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U257" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>20</v>
       </c>
@@ -16393,9 +16406,6 @@
       <c r="C258" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E258" s="1" t="s">
         <v>20</v>
       </c>
@@ -16444,8 +16454,11 @@
       <c r="T258" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U258" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>20</v>
       </c>
@@ -16455,9 +16468,6 @@
       <c r="C259" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E259" s="1" t="s">
         <v>20</v>
       </c>
@@ -16506,8 +16516,11 @@
       <c r="T259" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U259" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>20</v>
       </c>
@@ -16517,9 +16530,6 @@
       <c r="C260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E260" s="1" t="s">
         <v>20</v>
       </c>
@@ -16568,8 +16578,11 @@
       <c r="T260" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U260" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>20</v>
       </c>
@@ -16579,9 +16592,6 @@
       <c r="C261" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E261" s="1" t="s">
         <v>20</v>
       </c>
@@ -16630,8 +16640,11 @@
       <c r="T261" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U261" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>20</v>
       </c>
@@ -16641,9 +16654,6 @@
       <c r="C262" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E262" s="1" t="s">
         <v>20</v>
       </c>
@@ -16692,8 +16702,11 @@
       <c r="T262" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U262" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>20</v>
       </c>
@@ -16703,9 +16716,6 @@
       <c r="C263" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E263" s="1" t="s">
         <v>20</v>
       </c>
@@ -16754,8 +16764,11 @@
       <c r="T263" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U263" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>20</v>
       </c>
@@ -16765,9 +16778,6 @@
       <c r="C264" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E264" s="1" t="s">
         <v>20</v>
       </c>
@@ -16816,8 +16826,11 @@
       <c r="T264" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U264" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>20</v>
       </c>
@@ -16827,9 +16840,6 @@
       <c r="C265" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E265" s="1" t="s">
         <v>20</v>
       </c>
@@ -16878,8 +16888,11 @@
       <c r="T265" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U265" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>20</v>
       </c>
@@ -16889,9 +16902,6 @@
       <c r="C266" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E266" s="1" t="s">
         <v>20</v>
       </c>
@@ -16940,8 +16950,11 @@
       <c r="T266" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U266" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>20</v>
       </c>
@@ -16951,9 +16964,6 @@
       <c r="C267" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E267" s="1" t="s">
         <v>20</v>
       </c>
@@ -17002,8 +17012,11 @@
       <c r="T267" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U267" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>20</v>
       </c>
@@ -17013,9 +17026,6 @@
       <c r="C268" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E268" s="1" t="s">
         <v>20</v>
       </c>
@@ -17064,8 +17074,11 @@
       <c r="T268" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U268" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>20</v>
       </c>
@@ -17075,9 +17088,6 @@
       <c r="C269" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E269" s="1" t="s">
         <v>20</v>
       </c>
@@ -17126,8 +17136,11 @@
       <c r="T269" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U269" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>20</v>
       </c>
@@ -17137,9 +17150,6 @@
       <c r="C270" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E270" s="1" t="s">
         <v>20</v>
       </c>
@@ -17188,8 +17198,11 @@
       <c r="T270" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U270" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>20</v>
       </c>
@@ -17199,9 +17212,6 @@
       <c r="C271" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E271" s="1" t="s">
         <v>20</v>
       </c>
@@ -17250,8 +17260,11 @@
       <c r="T271" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U271" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>20</v>
       </c>
@@ -17261,9 +17274,6 @@
       <c r="C272" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E272" s="1" t="s">
         <v>20</v>
       </c>
@@ -17312,8 +17322,11 @@
       <c r="T272" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U272" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>20</v>
       </c>
@@ -17323,9 +17336,6 @@
       <c r="C273" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E273" s="1" t="s">
         <v>20</v>
       </c>
@@ -17374,8 +17384,11 @@
       <c r="T273" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U273" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>20</v>
       </c>
@@ -17385,9 +17398,6 @@
       <c r="C274" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E274" s="1" t="s">
         <v>20</v>
       </c>
@@ -17436,8 +17446,11 @@
       <c r="T274" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U274" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>20</v>
       </c>
@@ -17447,9 +17460,6 @@
       <c r="C275" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E275" s="1" t="s">
         <v>20</v>
       </c>
@@ -17498,8 +17508,11 @@
       <c r="T275" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U275" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>20</v>
       </c>
@@ -17509,9 +17522,6 @@
       <c r="C276" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E276" s="1" t="s">
         <v>20</v>
       </c>
@@ -17560,8 +17570,11 @@
       <c r="T276" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U276" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>20</v>
       </c>
@@ -17571,9 +17584,6 @@
       <c r="C277" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E277" s="1" t="s">
         <v>20</v>
       </c>
@@ -17622,8 +17632,11 @@
       <c r="T277" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U277" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>20</v>
       </c>
@@ -17633,9 +17646,6 @@
       <c r="C278" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E278" s="1" t="s">
         <v>20</v>
       </c>
@@ -17684,8 +17694,11 @@
       <c r="T278" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U278" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>20</v>
       </c>
@@ -17695,9 +17708,6 @@
       <c r="C279" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E279" s="1" t="s">
         <v>20</v>
       </c>
@@ -17746,8 +17756,11 @@
       <c r="T279" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U279" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>20</v>
       </c>
@@ -17757,9 +17770,6 @@
       <c r="C280" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E280" s="1" t="s">
         <v>20</v>
       </c>
@@ -17808,8 +17818,11 @@
       <c r="T280" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U280" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>20</v>
       </c>
@@ -17819,9 +17832,6 @@
       <c r="C281" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E281" s="1" t="s">
         <v>20</v>
       </c>
@@ -17870,8 +17880,11 @@
       <c r="T281" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U281" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>20</v>
       </c>
@@ -17881,9 +17894,6 @@
       <c r="C282" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E282" s="1" t="s">
         <v>20</v>
       </c>
@@ -17932,8 +17942,11 @@
       <c r="T282" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U282" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>20</v>
       </c>
@@ -17943,9 +17956,6 @@
       <c r="C283" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E283" s="1" t="s">
         <v>20</v>
       </c>
@@ -17994,8 +18004,11 @@
       <c r="T283" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U283" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>20</v>
       </c>
@@ -18005,9 +18018,6 @@
       <c r="C284" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E284" s="1" t="s">
         <v>20</v>
       </c>
@@ -18056,8 +18066,11 @@
       <c r="T284" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U284" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>20</v>
       </c>
@@ -18067,9 +18080,6 @@
       <c r="C285" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E285" s="1" t="s">
         <v>20</v>
       </c>
@@ -18118,8 +18128,11 @@
       <c r="T285" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U285" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>20</v>
       </c>
@@ -18129,9 +18142,6 @@
       <c r="C286" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E286" s="1" t="s">
         <v>20</v>
       </c>
@@ -18180,8 +18190,11 @@
       <c r="T286" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U286" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>20</v>
       </c>
@@ -18191,9 +18204,6 @@
       <c r="C287" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E287" s="1" t="s">
         <v>20</v>
       </c>
@@ -18242,8 +18252,11 @@
       <c r="T287" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U287" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>20</v>
       </c>
@@ -18253,9 +18266,6 @@
       <c r="C288" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E288" s="1" t="s">
         <v>20</v>
       </c>
@@ -18304,8 +18314,11 @@
       <c r="T288" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U288" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>20</v>
       </c>
@@ -18315,9 +18328,6 @@
       <c r="C289" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E289" s="1" t="s">
         <v>20</v>
       </c>
@@ -18366,8 +18376,11 @@
       <c r="T289" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U289" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>20</v>
       </c>
@@ -18377,9 +18390,6 @@
       <c r="C290" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E290" s="1" t="s">
         <v>20</v>
       </c>
@@ -18428,8 +18438,11 @@
       <c r="T290" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U290" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>20</v>
       </c>
@@ -18439,9 +18452,6 @@
       <c r="C291" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E291" s="1" t="s">
         <v>20</v>
       </c>
@@ -18490,8 +18500,11 @@
       <c r="T291" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U291" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>20</v>
       </c>
@@ -18501,9 +18514,6 @@
       <c r="C292" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E292" s="1" t="s">
         <v>20</v>
       </c>
@@ -18552,8 +18562,11 @@
       <c r="T292" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U292" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>20</v>
       </c>
@@ -18563,9 +18576,6 @@
       <c r="C293" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E293" s="1" t="s">
         <v>20</v>
       </c>
@@ -18614,8 +18624,11 @@
       <c r="T293" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U293" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>20</v>
       </c>
@@ -18625,9 +18638,6 @@
       <c r="C294" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E294" s="1" t="s">
         <v>20</v>
       </c>
@@ -18676,8 +18686,11 @@
       <c r="T294" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U294" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>20</v>
       </c>
@@ -18687,9 +18700,6 @@
       <c r="C295" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E295" s="1" t="s">
         <v>20</v>
       </c>
@@ -18738,8 +18748,11 @@
       <c r="T295" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U295" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>20</v>
       </c>
@@ -18749,9 +18762,6 @@
       <c r="C296" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E296" s="1" t="s">
         <v>20</v>
       </c>
@@ -18800,8 +18810,11 @@
       <c r="T296" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U296" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>20</v>
       </c>
@@ -18811,9 +18824,6 @@
       <c r="C297" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E297" s="1" t="s">
         <v>20</v>
       </c>
@@ -18862,8 +18872,11 @@
       <c r="T297" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U297" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>20</v>
       </c>
@@ -18873,9 +18886,6 @@
       <c r="C298" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E298" s="1" t="s">
         <v>20</v>
       </c>
@@ -18924,8 +18934,11 @@
       <c r="T298" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U298" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>20</v>
       </c>
@@ -18935,9 +18948,6 @@
       <c r="C299" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E299" s="1" t="s">
         <v>20</v>
       </c>
@@ -18986,8 +18996,11 @@
       <c r="T299" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U299" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>20</v>
       </c>
@@ -18997,9 +19010,6 @@
       <c r="C300" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E300" s="1" t="s">
         <v>20</v>
       </c>
@@ -19046,6 +19056,9 @@
         <v>20</v>
       </c>
       <c r="T300" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U300" s="1" t="s">
         <v>20</v>
       </c>
     </row>
